--- a/Planning/planning_2017/plotmaps_2017.xlsx
+++ b/Planning/planning_2017/plotmaps_2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="511" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="511" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="2 (2)" sheetId="6" r:id="rId1"/>
@@ -28,21 +23,22 @@
     <sheet name="12" sheetId="16" r:id="rId14"/>
     <sheet name="13" sheetId="17" r:id="rId15"/>
     <sheet name="15" sheetId="19" r:id="rId16"/>
+    <sheet name="meta" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="205">
   <si>
     <t>Shrub Sun</t>
   </si>
@@ -639,6 +635,24 @@
   </si>
   <si>
     <t>SAMRAC_GR_1</t>
+  </si>
+  <si>
+    <t>from data/treegarden_2017plots_README.txt:</t>
+  </si>
+  <si>
+    <t>plotmaps_2017.xlsx was made by Cat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indicates where each plant is and where to plant new plants. </t>
+  </si>
+  <si>
+    <t>Green boxes are plants already in the common garden,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue boxes are plants that are in the greenhouse. </t>
+  </si>
+  <si>
+    <t>orange boxes are plants found in the raised beds, and …</t>
   </si>
 </sst>
 </file>
@@ -4398,9 +4412,9 @@
       <selection activeCell="G9" sqref="G9:AF34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -4408,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -4416,7 +4430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -4424,12 +4438,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -4527,7 +4541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -4567,7 +4581,7 @@
       <c r="AH6" s="50"/>
       <c r="AI6" s="51"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -4604,7 +4618,7 @@
       <c r="AH7" s="19"/>
       <c r="AI7" s="52"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -4641,7 +4655,7 @@
       <c r="AH8" s="19"/>
       <c r="AI8" s="52"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -4692,7 +4706,7 @@
       <c r="AH9" s="19"/>
       <c r="AI9" s="52"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -4729,7 +4743,7 @@
       <c r="AH10" s="19"/>
       <c r="AI10" s="52"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -4766,7 +4780,7 @@
       <c r="AH11" s="19"/>
       <c r="AI11" s="52"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -4803,7 +4817,7 @@
       <c r="AH12" s="19"/>
       <c r="AI12" s="52"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -4840,7 +4854,7 @@
       <c r="AH13" s="19"/>
       <c r="AI13" s="52"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -4891,7 +4905,7 @@
       <c r="AH14" s="19"/>
       <c r="AI14" s="52"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -4928,7 +4942,7 @@
       <c r="AH15" s="19"/>
       <c r="AI15" s="52"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -4965,7 +4979,7 @@
       <c r="AH16" s="19"/>
       <c r="AI16" s="52"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -5002,7 +5016,7 @@
       <c r="AH17" s="19"/>
       <c r="AI17" s="52"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -5053,7 +5067,7 @@
       <c r="AH18" s="19"/>
       <c r="AI18" s="52"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -5090,7 +5104,7 @@
       <c r="AH19" s="19"/>
       <c r="AI19" s="52"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -5127,7 +5141,7 @@
       <c r="AH20" s="19"/>
       <c r="AI20" s="52"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -5164,7 +5178,7 @@
       <c r="AH21" s="19"/>
       <c r="AI21" s="52"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -5215,7 +5229,7 @@
       <c r="AH22" s="19"/>
       <c r="AI22" s="52"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -5252,7 +5266,7 @@
       <c r="AH23" s="19"/>
       <c r="AI23" s="52"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -5289,7 +5303,7 @@
       <c r="AH24" s="19"/>
       <c r="AI24" s="52"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -5326,7 +5340,7 @@
       <c r="AH25" s="19"/>
       <c r="AI25" s="52"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -5377,7 +5391,7 @@
       <c r="AH26" s="19"/>
       <c r="AI26" s="52"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -5414,7 +5428,7 @@
       <c r="AH27" s="19"/>
       <c r="AI27" s="52"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -5451,7 +5465,7 @@
       <c r="AH28" s="19"/>
       <c r="AI28" s="52"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -5488,7 +5502,7 @@
       <c r="AH29" s="19"/>
       <c r="AI29" s="52"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -5539,7 +5553,7 @@
       <c r="AH30" s="19"/>
       <c r="AI30" s="52"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -5576,7 +5590,7 @@
       <c r="AH31" s="19"/>
       <c r="AI31" s="52"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -5613,7 +5627,7 @@
       <c r="AH32" s="19"/>
       <c r="AI32" s="52"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -5650,7 +5664,7 @@
       <c r="AH33" s="19"/>
       <c r="AI33" s="52"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -5701,7 +5715,7 @@
       <c r="AH34" s="19"/>
       <c r="AI34" s="52"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -5738,7 +5752,7 @@
       <c r="AH35" s="19"/>
       <c r="AI35" s="52"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -5775,7 +5789,7 @@
       <c r="AH36" s="19"/>
       <c r="AI36" s="52"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -5812,11 +5826,16 @@
       <c r="AH37" s="38"/>
       <c r="AI37" s="53"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5828,9 +5847,9 @@
       <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -5838,7 +5857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5846,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -5854,12 +5873,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -5957,7 +5976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -5997,7 +6016,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -6034,7 +6053,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -6071,7 +6090,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -6122,7 +6141,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -6171,7 +6190,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -6208,7 +6227,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -6245,7 +6264,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -6282,7 +6301,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -6341,7 +6360,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -6378,7 +6397,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -6415,7 +6434,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -6452,7 +6471,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -6505,7 +6524,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -6542,7 +6561,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -6579,7 +6598,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -6616,7 +6635,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -6669,7 +6688,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -6706,7 +6725,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -6743,7 +6762,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -6780,7 +6799,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -6833,7 +6852,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -6870,7 +6889,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -6907,7 +6926,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -6944,7 +6963,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -7001,7 +7020,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -7038,7 +7057,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -7075,7 +7094,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -7112,7 +7131,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -7160,7 +7179,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -7197,7 +7216,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -7234,7 +7253,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -7271,11 +7290,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7287,12 +7311,12 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="35" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -7300,7 +7324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -7308,7 +7332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -7316,12 +7340,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -7419,7 +7443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -7459,7 +7483,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -7496,7 +7520,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -7533,7 +7557,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -7584,7 +7608,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -7623,7 +7647,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -7661,7 +7685,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -7699,7 +7723,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -7736,7 +7760,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -7787,7 +7811,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -7824,7 +7848,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -7865,7 +7889,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -7906,7 +7930,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -7957,7 +7981,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -7994,7 +8018,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -8037,7 +8061,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -8076,7 +8100,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -8127,7 +8151,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -8164,7 +8188,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -8205,7 +8229,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -8242,7 +8266,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -8292,7 +8316,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -8329,7 +8353,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -8374,7 +8398,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -8411,7 +8435,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -8462,7 +8486,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -8499,7 +8523,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -8536,7 +8560,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -8577,7 +8601,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -8628,7 +8652,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -8665,7 +8689,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -8702,7 +8726,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -8739,11 +8763,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="17" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8755,9 +8784,9 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -8765,7 +8794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -8773,7 +8802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -8781,12 +8810,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -8884,7 +8913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -8924,7 +8953,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -8961,7 +8990,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -8998,7 +9027,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -9049,7 +9078,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -9090,7 +9119,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -9129,7 +9158,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -9166,7 +9195,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -9203,7 +9232,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -9249,7 +9278,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -9290,7 +9319,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -9327,7 +9356,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -9364,7 +9393,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -9417,7 +9446,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -9457,7 +9486,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -9494,7 +9523,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -9531,7 +9560,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -9584,7 +9613,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -9625,7 +9654,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -9662,7 +9691,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -9703,7 +9732,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -9754,7 +9783,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -9795,7 +9824,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -9832,7 +9861,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -9868,7 +9897,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -9918,7 +9947,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -9957,7 +9986,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -9998,7 +10027,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -10035,7 +10064,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -10087,7 +10116,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -10124,7 +10153,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -10161,7 +10190,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -10198,11 +10227,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10214,9 +10248,9 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -10224,7 +10258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -10232,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -10240,12 +10274,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -10343,7 +10377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -10383,7 +10417,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -10420,7 +10454,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -10457,7 +10491,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -10508,7 +10542,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -10561,7 +10595,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -10598,7 +10632,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -10635,7 +10669,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -10672,7 +10706,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -10723,7 +10757,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -10760,7 +10794,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -10797,7 +10831,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -10834,7 +10868,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -10891,7 +10925,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -10928,7 +10962,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -10965,7 +10999,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -11002,7 +11036,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -11057,7 +11091,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -11094,7 +11128,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -11131,7 +11165,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -11168,7 +11202,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -11219,7 +11253,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -11256,7 +11290,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -11293,7 +11327,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -11330,7 +11364,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -11383,7 +11417,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -11420,7 +11454,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -11457,7 +11491,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -11494,7 +11528,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -11545,7 +11579,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -11582,7 +11616,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -11619,7 +11653,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -11656,11 +11690,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11672,9 +11711,9 @@
       <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -11682,7 +11721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -11690,7 +11729,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -11698,12 +11737,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -11801,7 +11840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -11841,7 +11880,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -11878,7 +11917,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -11915,7 +11954,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -11966,7 +12005,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -12011,7 +12050,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -12048,7 +12087,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -12085,7 +12124,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -12122,7 +12161,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -12171,7 +12210,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -12208,7 +12247,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -12249,7 +12288,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -12286,7 +12325,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -12337,7 +12376,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -12374,7 +12413,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -12413,7 +12452,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -12450,7 +12489,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -12503,7 +12542,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -12540,7 +12579,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -12579,7 +12618,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -12616,7 +12655,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -12667,7 +12706,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -12703,7 +12742,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -12744,7 +12783,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -12780,7 +12819,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -12831,7 +12870,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -12868,7 +12907,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -12906,7 +12945,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -12945,7 +12984,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -12996,7 +13035,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -13033,7 +13072,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -13070,7 +13109,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -13107,11 +13146,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13123,9 +13167,9 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -13133,7 +13177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -13141,7 +13185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -13149,12 +13193,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -13252,7 +13296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -13292,7 +13336,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -13329,7 +13373,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -13366,7 +13410,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -13417,7 +13461,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -13466,7 +13510,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -13503,7 +13547,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -13540,7 +13584,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -13577,7 +13621,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -13632,7 +13676,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -13669,7 +13713,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -13706,7 +13750,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -13745,7 +13789,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -13796,7 +13840,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -13837,7 +13881,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -13878,7 +13922,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -13917,7 +13961,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -13968,7 +14012,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -14005,7 +14049,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -14045,7 +14089,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -14081,7 +14125,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -14134,7 +14178,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -14174,7 +14218,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -14210,7 +14254,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -14246,7 +14290,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -14299,7 +14343,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -14336,7 +14380,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -14375,7 +14419,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -14416,7 +14460,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -14466,7 +14510,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -14503,7 +14547,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -14540,7 +14584,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -14577,11 +14621,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14593,9 +14642,9 @@
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -14603,7 +14652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -14611,7 +14660,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -14619,12 +14668,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -14722,7 +14771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -14762,7 +14811,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -14799,7 +14848,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -14836,7 +14885,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -14887,7 +14936,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -14928,7 +14977,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -14967,7 +15016,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -15004,7 +15053,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -15041,7 +15090,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -15092,7 +15141,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -15129,7 +15178,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -15167,7 +15216,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -15204,7 +15253,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -15255,7 +15304,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -15294,7 +15343,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -15332,7 +15381,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -15369,7 +15418,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -15420,7 +15469,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -15457,7 +15506,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -15494,7 +15543,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -15531,7 +15580,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -15582,7 +15631,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -15621,7 +15670,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -15658,7 +15707,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -15695,7 +15744,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -15748,7 +15797,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -15785,7 +15834,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -15824,7 +15873,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -15861,7 +15910,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -15912,7 +15961,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -15949,7 +15998,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -15986,7 +16035,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -16023,11 +16072,66 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16039,9 +16143,9 @@
       <selection activeCell="A2" sqref="A1:AI37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -16049,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -16057,7 +16161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -16065,12 +16169,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -16168,7 +16272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -16208,7 +16312,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -16245,7 +16349,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -16282,7 +16386,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -16319,7 +16423,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -16356,7 +16460,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -16393,7 +16497,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -16430,7 +16534,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -16467,7 +16571,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -16504,7 +16608,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -16541,7 +16645,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -16578,7 +16682,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -16615,7 +16719,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -16652,7 +16756,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -16689,7 +16793,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -16726,7 +16830,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -16763,7 +16867,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -16800,7 +16904,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -16837,7 +16941,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -16874,7 +16978,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -16911,7 +17015,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -16948,7 +17052,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -16985,7 +17089,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -17022,7 +17126,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -17059,7 +17163,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -17096,7 +17200,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -17133,7 +17237,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -17170,7 +17274,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -17207,7 +17311,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -17244,7 +17348,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -17281,7 +17385,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -17318,7 +17422,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -17355,11 +17459,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17374,9 +17483,9 @@
       <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -17388,7 +17497,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -17400,7 +17509,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -17412,12 +17521,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -17515,7 +17624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -17555,7 +17664,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -17592,7 +17701,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -17629,7 +17738,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -17680,7 +17789,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -17723,7 +17832,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -17760,7 +17869,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -17797,7 +17906,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -17834,7 +17943,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -17885,7 +17994,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -17928,7 +18037,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -17967,7 +18076,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -18004,7 +18113,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -18055,7 +18164,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -18094,7 +18203,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -18135,7 +18244,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -18172,7 +18281,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -18223,7 +18332,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -18260,7 +18369,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -18299,7 +18408,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -18338,7 +18447,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -18389,7 +18498,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -18430,7 +18539,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -18467,7 +18576,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -18510,7 +18619,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -18561,7 +18670,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -18598,7 +18707,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -18635,7 +18744,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -18678,7 +18787,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -18729,7 +18838,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -18766,7 +18875,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -18803,7 +18912,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -18840,11 +18949,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="39" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18856,9 +18970,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -18866,7 +18980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -18878,7 +18992,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -18890,7 +19004,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
@@ -18899,7 +19013,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -18997,7 +19111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -19037,7 +19151,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -19074,7 +19188,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -19111,7 +19225,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -19162,7 +19276,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -19205,7 +19319,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -19242,7 +19356,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -19279,7 +19393,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -19316,7 +19430,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -19367,7 +19481,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -19406,7 +19520,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -19443,7 +19557,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -19480,7 +19594,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -19531,7 +19645,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -19570,7 +19684,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -19611,7 +19725,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -19648,7 +19762,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -19699,7 +19813,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -19736,7 +19850,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -19775,7 +19889,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -19818,7 +19932,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -19869,7 +19983,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -19906,7 +20020,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -19949,7 +20063,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -19988,7 +20102,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -20039,7 +20153,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -20076,7 +20190,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -20113,7 +20227,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -20160,7 +20274,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -20211,7 +20325,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -20248,7 +20362,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -20285,7 +20399,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -20322,11 +20436,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20338,9 +20457,9 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -20348,7 +20467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -20356,7 +20475,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -20364,12 +20483,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -20467,7 +20586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -20507,7 +20626,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -20544,7 +20663,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -20581,7 +20700,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -20632,7 +20751,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -20681,7 +20800,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -20718,7 +20837,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -20755,7 +20874,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -20792,7 +20911,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -20843,7 +20962,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -20890,7 +21009,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -20927,7 +21046,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -20964,7 +21083,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -21017,7 +21136,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -21056,7 +21175,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -21099,7 +21218,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -21136,7 +21255,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -21187,7 +21306,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -21226,7 +21345,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -21265,7 +21384,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -21304,7 +21423,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -21355,7 +21474,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -21392,7 +21511,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -21431,7 +21550,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -21470,7 +21589,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -21525,7 +21644,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -21562,7 +21681,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -21599,7 +21718,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -21640,7 +21759,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -21691,7 +21810,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -21728,7 +21847,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -21765,7 +21884,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -21802,11 +21921,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -21818,9 +21942,9 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -21828,7 +21952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -21836,7 +21960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -21844,12 +21968,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -21947,7 +22071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -21987,7 +22111,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -22024,7 +22148,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -22061,7 +22185,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -22112,7 +22236,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -22163,7 +22287,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -22200,7 +22324,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -22237,7 +22361,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -22274,7 +22398,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -22331,7 +22455,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -22368,7 +22492,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -22405,7 +22529,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -22442,7 +22566,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -22497,7 +22621,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -22534,7 +22658,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -22571,7 +22695,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -22608,7 +22732,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -22665,7 +22789,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -22702,7 +22826,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -22739,7 +22863,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -22776,7 +22900,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -22831,7 +22955,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -22868,7 +22992,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -22905,7 +23029,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -22942,7 +23066,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -22997,7 +23121,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -23034,7 +23158,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -23071,7 +23195,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -23108,7 +23232,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -23163,7 +23287,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -23200,7 +23324,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -23237,7 +23361,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -23274,11 +23398,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -23286,13 +23415,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="ER6" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -23300,7 +23429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -23308,7 +23437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -23316,12 +23445,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -23419,7 +23548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -23459,7 +23588,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -23496,7 +23625,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -23533,7 +23662,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -23584,7 +23713,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -23633,7 +23762,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -23670,7 +23799,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -23707,7 +23836,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -23744,7 +23873,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -23795,7 +23924,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -23836,7 +23965,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -23877,7 +24006,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -23914,7 +24043,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -23965,7 +24094,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -24002,7 +24131,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -24047,7 +24176,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -24084,7 +24213,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -24139,7 +24268,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -24180,7 +24309,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -24217,7 +24346,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -24256,7 +24385,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -24307,7 +24436,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -24344,7 +24473,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -24385,7 +24514,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -24422,7 +24551,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -24473,7 +24602,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -24510,7 +24639,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -24547,7 +24676,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -24592,7 +24721,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -24643,7 +24772,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -24680,7 +24809,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -24717,7 +24846,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -24754,11 +24883,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -24770,12 +24904,12 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="35" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -24783,7 +24917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -24791,7 +24925,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -24799,12 +24933,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -24902,7 +25036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -24942,7 +25076,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -24979,7 +25113,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -25016,7 +25150,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -25067,7 +25201,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -25116,7 +25250,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -25153,7 +25287,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -25190,7 +25324,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -25227,7 +25361,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -25276,7 +25410,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -25313,7 +25447,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -25354,7 +25488,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -25391,7 +25525,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -25442,7 +25576,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -25481,7 +25615,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -25518,7 +25652,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -25563,7 +25697,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -25614,7 +25748,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -25653,7 +25787,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -25692,7 +25826,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -25731,7 +25865,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -25782,7 +25916,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -25821,7 +25955,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -25864,7 +25998,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -25903,7 +26037,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -25954,7 +26088,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -25993,7 +26127,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -26030,7 +26164,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -26069,7 +26203,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -26120,7 +26254,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -26157,7 +26291,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -26194,7 +26328,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -26231,11 +26365,16 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="17" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -26247,9 +26386,9 @@
       <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -26257,7 +26396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -26265,7 +26404,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -26273,12 +26412,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="D5">
         <v>1</v>
       </c>
@@ -26376,7 +26515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -26416,7 +26555,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="36" customHeight="1">
       <c r="C7">
         <v>2</v>
       </c>
@@ -26453,7 +26592,7 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="36" customHeight="1">
       <c r="C8">
         <v>3</v>
       </c>
@@ -26490,7 +26629,7 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="36" customHeight="1" thickBot="1">
       <c r="C9">
         <v>4</v>
       </c>
@@ -26541,7 +26680,7 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="36" customHeight="1">
       <c r="C10">
         <v>5</v>
       </c>
@@ -26588,7 +26727,7 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="36" customHeight="1">
       <c r="C11">
         <v>6</v>
       </c>
@@ -26628,7 +26767,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="36" customHeight="1">
       <c r="C12">
         <v>7</v>
       </c>
@@ -26665,7 +26804,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="36" customHeight="1">
       <c r="C13">
         <v>8</v>
       </c>
@@ -26701,7 +26840,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="36" customHeight="1">
       <c r="C14">
         <v>9</v>
       </c>
@@ -26754,7 +26893,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="36" customHeight="1">
       <c r="C15">
         <v>10</v>
       </c>
@@ -26790,7 +26929,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="36" customHeight="1">
       <c r="C16">
         <v>11</v>
       </c>
@@ -26831,7 +26970,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:35" ht="36" customHeight="1">
       <c r="C17">
         <v>12</v>
       </c>
@@ -26868,7 +27007,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:35" ht="36" customHeight="1">
       <c r="C18">
         <v>13</v>
       </c>
@@ -26923,7 +27062,7 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:35" ht="36" customHeight="1">
       <c r="C19">
         <v>14</v>
       </c>
@@ -26962,7 +27101,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:35" ht="36" customHeight="1">
       <c r="C20">
         <v>15</v>
       </c>
@@ -26998,7 +27137,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:35" ht="36" customHeight="1">
       <c r="C21">
         <v>16</v>
       </c>
@@ -27037,7 +27176,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:35" ht="36" customHeight="1">
       <c r="C22">
         <v>17</v>
       </c>
@@ -27088,7 +27227,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:35" ht="36" customHeight="1">
       <c r="C23">
         <v>18</v>
       </c>
@@ -27131,7 +27270,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:35" ht="36" customHeight="1">
       <c r="C24">
         <v>19</v>
       </c>
@@ -27171,7 +27310,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:35" ht="36" customHeight="1">
       <c r="C25">
         <v>20</v>
       </c>
@@ -27212,7 +27351,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:35" ht="36" customHeight="1">
       <c r="C26">
         <v>21</v>
       </c>
@@ -27263,7 +27402,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:35" ht="36" customHeight="1">
       <c r="C27">
         <v>22</v>
       </c>
@@ -27302,7 +27441,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:35" ht="36" customHeight="1">
       <c r="C28">
         <v>23</v>
       </c>
@@ -27337,7 +27476,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:35" ht="36" customHeight="1">
       <c r="C29">
         <v>24</v>
       </c>
@@ -27378,7 +27517,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:35" ht="36" customHeight="1">
       <c r="C30">
         <v>25</v>
       </c>
@@ -27429,7 +27568,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:35" ht="36" customHeight="1">
       <c r="C31">
         <v>26</v>
       </c>
@@ -27464,7 +27603,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:35" ht="36" customHeight="1">
       <c r="C32">
         <v>27</v>
       </c>
@@ -27502,7 +27641,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C33">
         <v>28</v>
       </c>
@@ -27545,7 +27684,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:35" ht="36" customHeight="1">
       <c r="C34">
         <v>29</v>
       </c>
@@ -27596,7 +27735,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:35" ht="36" customHeight="1">
       <c r="C35">
         <v>30</v>
       </c>
@@ -27633,7 +27772,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="3:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:35" ht="36" customHeight="1">
       <c r="C36">
         <v>31</v>
       </c>
@@ -27670,7 +27809,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" ht="36" customHeight="1" thickBot="1">
       <c r="C37">
         <v>32</v>
       </c>
@@ -27707,10 +27846,15 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:35" ht="36" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Planning/planning_2017/plotmaps_2017.xlsx
+++ b/Planning/planning_2017/plotmaps_2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="511" firstSheet="7" activeTab="16"/>
@@ -38,15 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="210">
   <si>
     <t>Shrub Sun</t>
   </si>
   <si>
     <t>AROMEL_WM_7</t>
-  </si>
-  <si>
-    <t>MYRGAL_GR_7</t>
   </si>
   <si>
     <t>VIBCAS_SH_1</t>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>SPITOM_HF_6</t>
-  </si>
-  <si>
-    <t>SPIALB_WM_6</t>
   </si>
   <si>
     <t>MYRGAL_SH_2</t>
@@ -175,13 +169,7 @@
     <t>ALNINC_SH_5</t>
   </si>
   <si>
-    <t>AMECAN_HF_1</t>
-  </si>
-  <si>
     <t>BETPAP_GR_8</t>
-  </si>
-  <si>
-    <t>AMECAN_WM_8</t>
   </si>
   <si>
     <t>ALNINC_SH_7</t>
@@ -200,9 +188,6 @@
   </si>
   <si>
     <t>Shrub Shade</t>
-  </si>
-  <si>
-    <t>ACESPI_WM_4</t>
   </si>
   <si>
     <t>SORAME_GR_9</t>
@@ -565,9 +550,6 @@
     <t>ALNINC_HF_2</t>
   </si>
   <si>
-    <t>ALNINC_HF_7</t>
-  </si>
-  <si>
     <t>BETALL_SH_2</t>
   </si>
   <si>
@@ -595,16 +577,7 @@
     <t>SPIALB_WM_4</t>
   </si>
   <si>
-    <t>SPIALB_HF_12</t>
-  </si>
-  <si>
-    <t>SPITOM_WM_2</t>
-  </si>
-  <si>
     <t>VIBCAS_GR_3</t>
-  </si>
-  <si>
-    <t>VIBCAS_WM_6</t>
   </si>
   <si>
     <t>VIBCAS_SH_9</t>
@@ -623,9 +596,6 @@
   </si>
   <si>
     <t>VACMYR_GR_10</t>
-  </si>
-  <si>
-    <t>DIELON_WM_XX</t>
   </si>
   <si>
     <t>SAMRAC_GR_8</t>
@@ -653,6 +623,51 @@
   </si>
   <si>
     <t>orange boxes are plants found in the raised beds, and …</t>
+  </si>
+  <si>
+    <t>BETALL_GR_13*</t>
+  </si>
+  <si>
+    <t>*white tage sat 12</t>
+  </si>
+  <si>
+    <t>AMECAN_WM_8**</t>
+  </si>
+  <si>
+    <t>AMECAN_HF_1**</t>
+  </si>
+  <si>
+    <t>**these 2 not present</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_8</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_1</t>
+  </si>
+  <si>
+    <t>Edited by Dan 0n 5/18/17 to reflect what got planted on 5/17/17</t>
+  </si>
+  <si>
+    <t>red boxes are empty holes</t>
+  </si>
+  <si>
+    <t>DIELON_WM_1</t>
+  </si>
+  <si>
+    <t>ACESPI_SH_9**</t>
+  </si>
+  <si>
+    <t>**this hole flooded</t>
+  </si>
+  <si>
+    <t>and plant is in RB</t>
+  </si>
+  <si>
+    <t>green boxes=planted fall 2016</t>
+  </si>
+  <si>
+    <t>orange and blue boxes= planted spring 2017</t>
   </si>
 </sst>
 </file>
@@ -792,12 +807,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -814,8 +823,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1151,8 +1166,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1209">
+  <cellStyleXfs count="1211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2362,8 +2392,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2715,9 +2747,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2730,55 +2759,55 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2787,83 +2816,101 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1209">
+  <cellStyles count="1211">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3468,6 +3515,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4072,6 +4120,7 @@
     <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4416,7 +4465,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4424,15 +4473,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -4440,7 +4489,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -4543,7 +4592,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4664,43 +4713,43 @@
       <c r="F9" s="19"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
@@ -4862,44 +4911,44 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
@@ -5024,44 +5073,44 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
@@ -5186,44 +5235,44 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
@@ -5348,44 +5397,44 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
@@ -5510,44 +5559,44 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
@@ -5673,43 +5722,43 @@
       <c r="F34" s="19"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
@@ -5843,15 +5892,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AB34" sqref="AB34"/>
+    <sheetView topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>8</v>
@@ -5859,7 +5908,7 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5867,7 +5916,7 @@
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>46</v>
@@ -5875,7 +5924,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -5978,7 +6027,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6099,43 +6148,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -6149,26 +6198,26 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="158" t="s">
-        <v>3</v>
+      <c r="H10" s="157" t="s">
+        <v>2</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="129" t="s">
-        <v>144</v>
+      <c r="L10" s="178" t="s">
+        <v>139</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="166" t="s">
-        <v>144</v>
+      <c r="P10" s="179" t="s">
+        <v>139</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -6178,13 +6227,13 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="17"/>
       <c r="AF10" s="75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -6309,30 +6358,30 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="84" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
@@ -6341,21 +6390,21 @@
         <v>1</v>
       </c>
       <c r="Y14" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
-      <c r="AB14" s="132" t="s">
-        <v>29</v>
+      <c r="AB14" s="131" t="s">
+        <v>27</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="75" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AG14" s="118" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
@@ -6479,46 +6528,46 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="146" t="s">
-        <v>144</v>
+        <v>93</v>
+      </c>
+      <c r="H18" s="145" t="s">
+        <v>139</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="156" t="s">
-        <v>144</v>
+      <c r="L18" s="155" t="s">
+        <v>139</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="75" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="148" t="s">
-        <v>169</v>
+      <c r="AF18" s="147" t="s">
+        <v>164</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -6643,46 +6692,46 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="84" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
-      <c r="P22" s="132" t="s">
-        <v>29</v>
+      <c r="P22" s="131" t="s">
+        <v>27</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
-      <c r="T22" s="157" t="s">
-        <v>144</v>
+      <c r="T22" s="156" t="s">
+        <v>139</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
-      <c r="X22" s="157" t="s">
-        <v>144</v>
+      <c r="X22" s="156" t="s">
+        <v>139</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
-      <c r="AB22" s="154" t="s">
-        <v>186</v>
+      <c r="AB22" s="153" t="s">
+        <v>10</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="75" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AG22" s="109"/>
       <c r="AH22" s="5"/>
@@ -6807,36 +6856,36 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" s="91"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="86" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
-      <c r="T26" s="157" t="s">
-        <v>146</v>
+      <c r="T26" s="156" t="s">
+        <v>141</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="84" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
@@ -6846,7 +6895,7 @@
       <c r="AD26" s="24"/>
       <c r="AE26" s="107"/>
       <c r="AF26" s="75" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG26" s="109"/>
       <c r="AH26" s="5"/>
@@ -6971,51 +7020,51 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="130" t="s">
-        <v>168</v>
+        <v>96</v>
+      </c>
+      <c r="H30" s="129" t="s">
+        <v>163</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M30" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
-      <c r="P30" s="148" t="s">
-        <v>187</v>
+      <c r="P30" s="147" t="s">
+        <v>179</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="156" t="s">
-        <v>9</v>
+      <c r="T30" s="155" t="s">
+        <v>8</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
-      <c r="AB30" s="148" t="s">
-        <v>17</v>
+      <c r="AB30" s="147" t="s">
+        <v>16</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG30" s="118" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AH30" s="5"/>
       <c r="AI30" s="6"/>
@@ -7140,37 +7189,37 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="75" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
-      <c r="L34" s="148" t="s">
-        <v>170</v>
+      <c r="L34" s="147" t="s">
+        <v>165</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="62" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
-      <c r="T34" s="148" t="s">
-        <v>15</v>
+      <c r="T34" s="177" t="s">
+        <v>14</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
-      <c r="X34" s="148" t="s">
-        <v>147</v>
+      <c r="X34" s="147" t="s">
+        <v>142</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
@@ -7307,7 +7356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -7318,7 +7367,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>9</v>
@@ -7326,15 +7375,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -7342,7 +7391,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -7445,7 +7494,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7566,43 +7615,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -7616,8 +7665,8 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="158" t="s">
-        <v>69</v>
+      <c r="H10" s="157" t="s">
+        <v>64</v>
       </c>
       <c r="I10" s="117"/>
       <c r="J10" s="13"/>
@@ -7669,7 +7718,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
       <c r="U11" s="75" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
@@ -7715,7 +7764,7 @@
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
       <c r="AD12" s="75" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AE12" s="22"/>
       <c r="AF12" s="19"/>
@@ -7768,44 +7817,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -7862,10 +7911,10 @@
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
       <c r="M16" s="75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N16" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="19"/>
@@ -7910,11 +7959,11 @@
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
-      <c r="U17" s="159" t="s">
-        <v>139</v>
+      <c r="U17" s="158" t="s">
+        <v>134</v>
       </c>
       <c r="V17" s="120" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="W17" s="29"/>
       <c r="X17" s="30"/>
@@ -7938,44 +7987,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -8026,8 +8075,8 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="146" t="s">
-        <v>43</v>
+      <c r="H20" s="145" t="s">
+        <v>41</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -8035,10 +8084,10 @@
       <c r="L20" s="20"/>
       <c r="M20" s="19"/>
       <c r="N20" s="75" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O20" s="126" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -8086,8 +8135,8 @@
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="20"/>
-      <c r="Y21" s="148" t="s">
-        <v>69</v>
+      <c r="Y21" s="147" t="s">
+        <v>64</v>
       </c>
       <c r="Z21" s="112"/>
       <c r="AA21" s="21"/>
@@ -8108,44 +8157,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -8196,8 +8245,8 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="146" t="s">
-        <v>178</v>
+      <c r="H24" s="145" t="s">
+        <v>172</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -8209,7 +8258,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
@@ -8274,43 +8323,43 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -8367,10 +8416,10 @@
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
       <c r="M28" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N28" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="19"/>
@@ -8389,10 +8438,10 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF28" s="119" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
@@ -8443,44 +8492,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -8571,8 +8620,8 @@
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
-      <c r="K33" s="167" t="s">
-        <v>192</v>
+      <c r="K33" s="165" t="s">
+        <v>183</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="34"/>
@@ -8588,7 +8637,7 @@
       <c r="W33" s="34"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="72" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Z33" s="34"/>
       <c r="AA33" s="36"/>
@@ -8610,43 +8659,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -8763,7 +8812,7 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="17" thickTop="1"/>
+    <row r="38" spans="3:35" ht="16" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8780,15 +8829,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="B19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -8796,15 +8845,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>37</v>
@@ -8812,7 +8861,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -8915,7 +8964,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9036,43 +9085,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -9092,8 +9141,8 @@
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="147" t="s">
-        <v>59</v>
+      <c r="N10" s="146" t="s">
+        <v>54</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
@@ -9108,8 +9157,8 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
-      <c r="AB10" s="147" t="s">
-        <v>56</v>
+      <c r="AB10" s="146" t="s">
+        <v>51</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
@@ -9144,7 +9193,7 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
       <c r="X11" s="69" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
@@ -9245,7 +9294,7 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -9255,13 +9304,13 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
@@ -9269,10 +9318,10 @@
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="102" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -9286,15 +9335,15 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="148" t="s">
-        <v>56</v>
+      <c r="H15" s="147" t="s">
+        <v>51</v>
       </c>
       <c r="I15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
       <c r="N15" s="19"/>
-      <c r="O15" s="148" t="s">
-        <v>151</v>
+      <c r="O15" s="147" t="s">
+        <v>146</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -9302,8 +9351,8 @@
       <c r="S15" s="19"/>
       <c r="T15" s="20"/>
       <c r="U15" s="19"/>
-      <c r="V15" s="156" t="s">
-        <v>140</v>
+      <c r="V15" s="155" t="s">
+        <v>135</v>
       </c>
       <c r="W15" s="19"/>
       <c r="X15" s="20"/>
@@ -9401,46 +9450,46 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="75" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -9455,7 +9504,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="19"/>
       <c r="H19" s="77" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
@@ -9472,14 +9521,14 @@
       <c r="X19" s="20"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="75" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="76" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF19" s="41"/>
       <c r="AG19" s="5"/>
@@ -9568,46 +9617,46 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
-      <c r="AA22" s="168" t="s">
-        <v>135</v>
+      <c r="AA22" s="166" t="s">
+        <v>138</v>
       </c>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -9626,14 +9675,14 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="21"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="75" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
@@ -9700,10 +9749,10 @@
       <c r="F25" s="5"/>
       <c r="G25" s="94"/>
       <c r="H25" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="123" t="s">
         <v>153</v>
-      </c>
-      <c r="I25" s="123" t="s">
-        <v>158</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -9740,44 +9789,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="115" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="89"/>
       <c r="I26" s="91"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
-      <c r="X26" s="165" t="s">
-        <v>198</v>
+      <c r="X26" s="164" t="s">
+        <v>188</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -9797,16 +9846,16 @@
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="148" t="s">
-        <v>57</v>
+      <c r="N27" s="147" t="s">
+        <v>156</v>
       </c>
       <c r="O27" s="21"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
-      <c r="T27" s="156" t="s">
-        <v>61</v>
+      <c r="T27" s="155" t="s">
+        <v>56</v>
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
@@ -9905,7 +9954,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
@@ -9916,32 +9965,32 @@
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="75" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="X30" s="128" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -9956,15 +10005,15 @@
       <c r="F31" s="5"/>
       <c r="G31" s="19"/>
       <c r="H31" s="77" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="20"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="148" t="s">
-        <v>163</v>
+      <c r="N31" s="180" t="s">
+        <v>205</v>
       </c>
       <c r="O31" s="21"/>
       <c r="Q31" s="19"/>
@@ -9981,7 +10030,9 @@
       <c r="AC31" s="19"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="22"/>
-      <c r="AF31" s="41"/>
+      <c r="AF31" s="41" t="s">
+        <v>206</v>
+      </c>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="6"/>
@@ -10014,15 +10065,17 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
       <c r="AA32" s="99" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB32" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="22"/>
-      <c r="AF32" s="41"/>
+      <c r="AF32" s="41" t="s">
+        <v>207</v>
+      </c>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="6"/>
@@ -10072,45 +10125,45 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="H34" s="43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="75" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="T34" s="55"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="105"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -10245,14 +10298,14 @@
   <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>11</v>
@@ -10260,7 +10313,7 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -10268,7 +10321,7 @@
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -10276,7 +10329,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -10379,7 +10432,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10500,43 +10553,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -10550,46 +10603,46 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="158" t="s">
-        <v>171</v>
+      <c r="H10" s="157" t="s">
+        <v>166</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="147" t="s">
-        <v>9</v>
+      <c r="P10" s="146" t="s">
+        <v>8</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="81" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y10" s="117" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
-      <c r="AB10" s="147" t="s">
-        <v>26</v>
+      <c r="AB10" s="146" t="s">
+        <v>24</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="17"/>
-      <c r="AF10" s="148" t="s">
-        <v>184</v>
+      <c r="AF10" s="147" t="s">
+        <v>178</v>
       </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -10714,28 +10767,28 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="171" t="s">
-        <v>166</v>
+        <v>73</v>
+      </c>
+      <c r="H14" s="181" t="s">
+        <v>161</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="157" t="s">
-        <v>171</v>
+      <c r="L14" s="156" t="s">
+        <v>166</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
-      <c r="P14" s="154" t="s">
-        <v>171</v>
+      <c r="P14" s="153" t="s">
+        <v>166</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
@@ -10744,14 +10797,14 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
-      <c r="AB14" s="170" t="s">
-        <v>184</v>
+      <c r="AB14" s="168" t="s">
+        <v>178</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
-      <c r="AF14" s="169" t="s">
-        <v>184</v>
+      <c r="AF14" s="167" t="s">
+        <v>178</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -10876,50 +10929,50 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="146" t="s">
-        <v>171</v>
+        <v>93</v>
+      </c>
+      <c r="H18" s="176" t="s">
+        <v>166</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="172" t="s">
-        <v>4</v>
+      <c r="L18" s="170" t="s">
+        <v>3</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
-      <c r="P18" s="173" t="s">
-        <v>4</v>
+      <c r="P18" s="171" t="s">
+        <v>11</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="174" t="s">
-        <v>4</v>
+      <c r="T18" s="182" t="s">
+        <v>3</v>
       </c>
       <c r="U18" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
-      <c r="AB18" s="148" t="s">
-        <v>171</v>
+      <c r="AB18" s="177" t="s">
+        <v>166</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -11044,48 +11097,48 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="171" t="s">
-        <v>185</v>
+        <v>94</v>
+      </c>
+      <c r="H22" s="169" t="s">
+        <v>24</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="157" t="s">
-        <v>188</v>
+      <c r="L22" s="156" t="s">
+        <v>12</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
-      <c r="P22" s="154" t="s">
-        <v>171</v>
+      <c r="P22" s="153" t="s">
+        <v>166</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="96" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="96" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC22" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -11210,44 +11263,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="157" t="s">
-        <v>189</v>
+      <c r="L26" s="156" t="s">
+        <v>180</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="154" t="s">
-        <v>132</v>
+      <c r="P26" s="153" t="s">
+        <v>127</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="96" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
-      <c r="X26" s="157" t="s">
-        <v>9</v>
+      <c r="X26" s="156" t="s">
+        <v>8</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
-      <c r="AB26" s="154" t="s">
-        <v>9</v>
+      <c r="AB26" s="153" t="s">
+        <v>8</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -11372,46 +11425,46 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q30" s="94"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="157" t="s">
-        <v>190</v>
+      <c r="T30" s="156" t="s">
+        <v>181</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="84" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="95" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -11537,43 +11590,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="19"/>
       <c r="AH34" s="5"/>
@@ -11708,14 +11761,14 @@
   <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="AR28" sqref="AR28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>12</v>
@@ -11723,15 +11776,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -11739,7 +11792,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -11842,7 +11895,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11963,43 +12016,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -12014,7 +12067,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="80" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -12027,10 +12080,10 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="74" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="T10" s="111" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -12043,7 +12096,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="59" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="5"/>
@@ -12169,26 +12222,26 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
@@ -12198,13 +12251,13 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -12260,7 +12313,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="69" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -12280,8 +12333,8 @@
       <c r="AB16" s="19"/>
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
-      <c r="AE16" s="175" t="s">
-        <v>192</v>
+      <c r="AE16" s="172" t="s">
+        <v>183</v>
       </c>
       <c r="AF16" s="41"/>
       <c r="AG16" s="5"/>
@@ -12333,44 +12386,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -12431,7 +12484,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="75" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
@@ -12497,46 +12550,46 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -12587,8 +12640,8 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="146" t="s">
-        <v>165</v>
+      <c r="H24" s="145" t="s">
+        <v>160</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -12663,44 +12716,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
-      <c r="T26" s="148" t="s">
-        <v>46</v>
+      <c r="T26" s="147" t="s">
+        <v>43</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -12756,8 +12809,8 @@
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
-      <c r="N28" s="148" t="s">
-        <v>38</v>
+      <c r="N28" s="147" t="s">
+        <v>36</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="19"/>
@@ -12775,8 +12828,8 @@
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
-      <c r="AE28" s="175" t="s">
-        <v>38</v>
+      <c r="AE28" s="172" t="s">
+        <v>36</v>
       </c>
       <c r="AF28" s="41"/>
       <c r="AG28" s="5"/>
@@ -12827,44 +12880,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -12931,8 +12984,8 @@
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
-      <c r="X32" s="156" t="s">
-        <v>164</v>
+      <c r="X32" s="182" t="s">
+        <v>159</v>
       </c>
       <c r="Z32" s="19"/>
       <c r="AA32" s="21"/>
@@ -12953,8 +13006,8 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="160" t="s">
-        <v>65</v>
+      <c r="H33" s="159" t="s">
+        <v>60</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -12993,43 +13046,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -13163,15 +13216,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>13</v>
@@ -13179,15 +13232,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -13195,7 +13248,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -13298,7 +13351,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -13419,43 +13472,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -13470,10 +13523,10 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="117" t="s">
         <v>153</v>
-      </c>
-      <c r="I10" s="117" t="s">
-        <v>158</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -13481,8 +13534,8 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="134" t="s">
-        <v>193</v>
+      <c r="P10" s="133" t="s">
+        <v>184</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -13491,8 +13544,8 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="137" t="s">
-        <v>195</v>
+      <c r="X10" s="136" t="s">
+        <v>204</v>
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
@@ -13501,10 +13554,10 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF10" s="112" t="s">
         <v>153</v>
-      </c>
-      <c r="AF10" s="112" t="s">
-        <v>158</v>
       </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -13629,48 +13682,48 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="86" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="103" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC14" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -13721,8 +13774,8 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="135" t="s">
-        <v>193</v>
+      <c r="H16" s="134" t="s">
+        <v>184</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -13774,15 +13827,17 @@
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
-      <c r="X17" s="30"/>
+      <c r="X17" s="103" t="s">
+        <v>52</v>
+      </c>
       <c r="Y17" s="29"/>
       <c r="Z17" s="29"/>
       <c r="AA17" s="31"/>
       <c r="AB17" s="29"/>
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
-      <c r="AE17" s="176" t="s">
-        <v>194</v>
+      <c r="AE17" s="173" t="s">
+        <v>185</v>
       </c>
       <c r="AF17" s="41"/>
       <c r="AG17" s="5"/>
@@ -13797,44 +13852,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -13853,10 +13908,10 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="69" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M19" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="21"/>
@@ -13900,10 +13955,10 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="75" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S20" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="T20" s="20"/>
       <c r="U20" s="19"/>
@@ -13949,8 +14004,8 @@
       <c r="X21" s="20"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
-      <c r="AA21" s="148" t="s">
-        <v>194</v>
+      <c r="AA21" s="147" t="s">
+        <v>185</v>
       </c>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
@@ -13969,44 +14024,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -14057,8 +14112,8 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="146" t="s">
-        <v>195</v>
+      <c r="H24" s="145" t="s">
+        <v>204</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -14081,8 +14136,8 @@
       <c r="AB24" s="19"/>
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
-      <c r="AE24" s="175" t="s">
-        <v>196</v>
+      <c r="AE24" s="172" t="s">
+        <v>186</v>
       </c>
       <c r="AF24" s="41"/>
       <c r="AG24" s="5"/>
@@ -14133,46 +14188,46 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -14198,16 +14253,16 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
-      <c r="T27" s="177" t="s">
-        <v>54</v>
+      <c r="T27" s="174" t="s">
+        <v>187</v>
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="19"/>
-      <c r="AA27" s="159" t="s">
-        <v>195</v>
+      <c r="AA27" s="158" t="s">
+        <v>146</v>
       </c>
       <c r="AB27" s="19"/>
       <c r="AC27" s="19"/>
@@ -14298,46 +14353,46 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="M30" s="112" t="s">
         <v>153</v>
-      </c>
-      <c r="M30" s="112" t="s">
-        <v>158</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -14397,8 +14452,8 @@
       <c r="N32" s="19"/>
       <c r="O32" s="21"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="156" t="s">
-        <v>161</v>
+      <c r="Q32" s="155" t="s">
+        <v>156</v>
       </c>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -14411,7 +14466,7 @@
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="75" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="AE32" s="22"/>
       <c r="AF32" s="41"/>
@@ -14442,10 +14497,10 @@
       <c r="T33" s="35"/>
       <c r="U33" s="34"/>
       <c r="V33" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="W33" s="124" t="s">
         <v>153</v>
-      </c>
-      <c r="W33" s="124" t="s">
-        <v>158</v>
       </c>
       <c r="X33" s="35"/>
       <c r="Y33" s="34"/>
@@ -14469,42 +14524,42 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -14646,7 +14701,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -14654,15 +14709,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -14670,7 +14725,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -14773,7 +14828,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -14894,43 +14949,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -14948,8 +15003,8 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="148" t="s">
-        <v>131</v>
+      <c r="L10" s="147" t="s">
+        <v>126</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -14958,8 +15013,8 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="161" t="s">
-        <v>177</v>
+      <c r="T10" s="160" t="s">
+        <v>171</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -15009,7 +15064,7 @@
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="76" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="5"/>
@@ -15098,44 +15153,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -15186,8 +15241,8 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="146" t="s">
-        <v>181</v>
+      <c r="H16" s="145" t="s">
+        <v>175</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -15261,44 +15316,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -15328,8 +15383,8 @@
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
-      <c r="X19" s="156" t="s">
-        <v>157</v>
+      <c r="X19" s="155" t="s">
+        <v>152</v>
       </c>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
@@ -15355,8 +15410,8 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="148" t="s">
-        <v>164</v>
+      <c r="M20" s="147" t="s">
+        <v>159</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="21"/>
@@ -15426,44 +15481,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -15588,44 +15643,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -15640,7 +15695,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="19"/>
       <c r="H27" s="77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -15752,46 +15807,46 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
-      <c r="W30" s="148" t="s">
-        <v>180</v>
+      <c r="W30" s="147" t="s">
+        <v>174</v>
       </c>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -15850,7 +15905,7 @@
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="99" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -15919,43 +15974,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -16087,42 +16142,62 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -16147,7 +16222,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -16155,15 +16230,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -16171,7 +16246,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -16274,7 +16349,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17479,51 +17554,51 @@
   </sheetPr>
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="F1" s="64"/>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F2" s="65"/>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>18</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -17626,7 +17701,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17747,43 +17822,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -17798,7 +17873,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -17810,8 +17885,8 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
-      <c r="S10" s="147" t="s">
-        <v>173</v>
+      <c r="S10" s="146" t="s">
+        <v>168</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="13"/>
@@ -17823,7 +17898,7 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="74" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="17"/>
@@ -17951,44 +18026,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -18008,10 +18083,10 @@
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="138" t="s">
-        <v>172</v>
-      </c>
-      <c r="O15" s="139"/>
+      <c r="N15" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="138"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -18028,10 +18103,10 @@
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF15" s="116" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -18062,8 +18137,8 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="20"/>
-      <c r="Y16" s="138" t="s">
-        <v>160</v>
+      <c r="Y16" s="137" t="s">
+        <v>155</v>
       </c>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21"/>
@@ -18121,44 +18196,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -18184,8 +18259,8 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
-      <c r="T19" s="140" t="s">
-        <v>67</v>
+      <c r="T19" s="139" t="s">
+        <v>62</v>
       </c>
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
@@ -18212,7 +18287,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="19"/>
       <c r="H20" s="77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -18237,9 +18312,11 @@
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF20" s="41"/>
+        <v>195</v>
+      </c>
+      <c r="AF20" s="41" t="s">
+        <v>196</v>
+      </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
@@ -18289,44 +18366,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -18385,8 +18462,8 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="148" t="s">
-        <v>33</v>
+      <c r="P24" s="147" t="s">
+        <v>31</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
@@ -18435,8 +18512,8 @@
       <c r="X25" s="30"/>
       <c r="Y25" s="29"/>
       <c r="Z25" s="29"/>
-      <c r="AA25" s="149" t="s">
-        <v>174</v>
+      <c r="AA25" s="148" t="s">
+        <v>169</v>
       </c>
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
@@ -18455,44 +18532,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -18509,10 +18586,10 @@
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
       <c r="J27" s="75" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K27" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="19"/>
@@ -18597,8 +18674,8 @@
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
-      <c r="U29" s="141" t="s">
-        <v>31</v>
+      <c r="U29" s="140" t="s">
+        <v>29</v>
       </c>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
@@ -18610,10 +18687,10 @@
       <c r="AC29" s="29"/>
       <c r="AD29" s="29"/>
       <c r="AE29" s="78" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AF29" s="119" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
@@ -18627,44 +18704,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -18753,7 +18830,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="70" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -18766,7 +18843,7 @@
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T33" s="35"/>
       <c r="U33" s="34"/>
@@ -18776,7 +18853,7 @@
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
       <c r="AA33" s="79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB33" s="34"/>
       <c r="AC33" s="34"/>
@@ -18796,43 +18873,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -18966,15 +19043,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -18982,35 +19059,35 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M2" s="64"/>
       <c r="N2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
       <c r="M3" s="65"/>
       <c r="N3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M4" s="66"/>
       <c r="N4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -19113,7 +19190,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -19234,43 +19311,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -19284,8 +19361,8 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="142" t="s">
-        <v>50</v>
+      <c r="H10" s="141" t="s">
+        <v>46</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -19300,8 +19377,8 @@
       <c r="S10" s="13"/>
       <c r="T10" s="15"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="143" t="s">
-        <v>44</v>
+      <c r="V10" s="142" t="s">
+        <v>42</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="15"/>
@@ -19312,7 +19389,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF10" s="112"/>
       <c r="AG10" s="5"/>
@@ -19438,44 +19515,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="60" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P14" s="114"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="60" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AB14" s="113"/>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -19491,7 +19568,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="18"/>
       <c r="I15" s="62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -19602,44 +19679,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -19660,7 +19737,7 @@
       <c r="L19" s="20"/>
       <c r="M19" s="19"/>
       <c r="N19" s="75" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O19" s="21"/>
       <c r="P19" s="19"/>
@@ -19692,8 +19769,8 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="146" t="s">
-        <v>165</v>
+      <c r="H20" s="145" t="s">
+        <v>160</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -19715,8 +19792,8 @@
       <c r="Z20" s="19"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="138" t="s">
-        <v>125</v>
+      <c r="AC20" s="137" t="s">
+        <v>120</v>
       </c>
       <c r="AD20" s="19"/>
       <c r="AE20" s="22"/>
@@ -19770,44 +19847,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -19882,7 +19959,7 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF24" s="41"/>
       <c r="AG24" s="5"/>
@@ -19897,8 +19974,8 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="144" t="s">
-        <v>160</v>
+      <c r="H25" s="143" t="s">
+        <v>155</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -19912,10 +19989,10 @@
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
       <c r="T25" s="67" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U25" s="120" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
@@ -19940,44 +20017,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -20032,8 +20109,8 @@
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
-      <c r="L28" s="140" t="s">
-        <v>41</v>
+      <c r="L28" s="139" t="s">
+        <v>39</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -20048,17 +20125,19 @@
       <c r="W28" s="19"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="19" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="Z28" s="19"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="AE28" s="22"/>
-      <c r="AF28" s="41"/>
+      <c r="AF28" s="41" t="s">
+        <v>199</v>
+      </c>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="6"/>
@@ -20082,8 +20161,8 @@
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
-      <c r="S29" s="141" t="s">
-        <v>66</v>
+      <c r="S29" s="140" t="s">
+        <v>61</v>
       </c>
       <c r="T29" s="30"/>
       <c r="U29" s="29"/>
@@ -20110,44 +20189,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -20236,10 +20315,10 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="71" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I33" s="124" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
@@ -20249,10 +20328,10 @@
       <c r="O33" s="36"/>
       <c r="P33" s="34"/>
       <c r="Q33" s="72" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R33" s="124" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S33" s="34"/>
       <c r="T33" s="35"/>
@@ -20261,8 +20340,8 @@
       <c r="W33" s="34"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="34"/>
-      <c r="Z33" s="145" t="s">
-        <v>125</v>
+      <c r="Z33" s="144" t="s">
+        <v>120</v>
       </c>
       <c r="AA33" s="36"/>
       <c r="AB33" s="34"/>
@@ -20283,43 +20362,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -20453,7 +20532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -20461,7 +20540,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -20469,15 +20548,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -20485,7 +20564,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -20588,7 +20667,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -20709,43 +20788,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -20760,17 +20839,17 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="80" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="147" t="s">
-        <v>165</v>
+      <c r="N10" s="146" t="s">
+        <v>160</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
@@ -20778,10 +20857,10 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="81" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="U10" s="117" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
@@ -20792,8 +20871,8 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="150" t="s">
-        <v>157</v>
+      <c r="AE10" s="149" t="s">
+        <v>152</v>
       </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
@@ -20919,44 +20998,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -20977,17 +21056,17 @@
       <c r="L15" s="20"/>
       <c r="M15" s="19"/>
       <c r="N15" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O15" s="126" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="69" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
@@ -20995,10 +21074,10 @@
       <c r="X15" s="20"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="75" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AA15" s="126" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
@@ -21091,46 +21170,46 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="76" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -21157,8 +21236,8 @@
       <c r="R19" s="5"/>
       <c r="S19" s="19"/>
       <c r="T19" s="20"/>
-      <c r="U19" s="148" t="s">
-        <v>46</v>
+      <c r="U19" s="147" t="s">
+        <v>43</v>
       </c>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
@@ -21186,8 +21265,8 @@
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="148" t="s">
-        <v>44</v>
+      <c r="K20" s="147" t="s">
+        <v>42</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="19"/>
@@ -21204,10 +21283,10 @@
       <c r="X20" s="20"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="75" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AA20" s="126" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
@@ -21263,44 +21342,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -21330,7 +21409,7 @@
       <c r="U23" s="19"/>
       <c r="V23" s="5"/>
       <c r="W23" s="75" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X23" s="20"/>
       <c r="Y23" s="19"/>
@@ -21353,8 +21432,8 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="146" t="s">
-        <v>66</v>
+      <c r="H24" s="145" t="s">
+        <v>61</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -21401,9 +21480,9 @@
       <c r="N25" s="29"/>
       <c r="O25" s="31"/>
       <c r="P25" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q25" s="151"/>
+        <v>167</v>
+      </c>
+      <c r="Q25" s="150"/>
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
@@ -21431,44 +21510,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -21543,7 +21622,7 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="76" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
@@ -21572,7 +21651,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
       <c r="U29" s="82" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
@@ -21597,48 +21676,48 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I30" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -21735,7 +21814,7 @@
       <c r="N33" s="34"/>
       <c r="O33" s="36"/>
       <c r="P33" s="72" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
@@ -21751,7 +21830,7 @@
       <c r="AB33" s="34"/>
       <c r="AC33" s="34"/>
       <c r="AD33" s="72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE33" s="11"/>
       <c r="AF33" s="5"/>
@@ -21768,43 +21847,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -21938,15 +22017,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -21954,7 +22033,7 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -21962,7 +22041,7 @@
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -21970,7 +22049,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -22073,7 +22152,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -22194,43 +22273,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -22245,44 +22324,44 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="81" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
       <c r="P10" s="74" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U10" s="117" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y10" s="152"/>
+        <v>11</v>
+      </c>
+      <c r="Y10" s="151"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="17"/>
-      <c r="AF10" s="155"/>
+      <c r="AF10" s="154"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
@@ -22406,10 +22485,10 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -22418,38 +22497,38 @@
         <v>1</v>
       </c>
       <c r="M14" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="86" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="91"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U14" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
-      <c r="AB14" s="154" t="s">
-        <v>2</v>
+      <c r="AB14" s="153" t="s">
+        <v>14</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -22574,48 +22653,48 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="146" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="H18" s="145" t="s">
+        <v>11</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="156" t="s">
-        <v>171</v>
+      <c r="L18" s="155" t="s">
+        <v>166</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
-      <c r="P18" s="148" t="s">
-        <v>15</v>
+      <c r="P18" s="147" t="s">
+        <v>14</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
-      <c r="X18" s="156" t="s">
-        <v>171</v>
+      <c r="X18" s="155" t="s">
+        <v>166</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC18" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="153" t="s">
-        <v>162</v>
+      <c r="AF18" s="152" t="s">
+        <v>200</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -22740,50 +22819,50 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M22" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="87" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG22" s="109"/>
       <c r="AH22" s="5"/>
@@ -22908,49 +22987,49 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I26" s="91"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
-      <c r="T26" s="157" t="s">
-        <v>167</v>
+      <c r="T26" s="156" t="s">
+        <v>162</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
-      <c r="X26" s="131" t="s">
-        <v>18</v>
+      <c r="X26" s="130" t="s">
+        <v>27</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
-      <c r="AB26" s="154" t="s">
-        <v>5</v>
+      <c r="AB26" s="175" t="s">
+        <v>4</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="87" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AG26" s="118" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AH26" s="5"/>
       <c r="AI26" s="6"/>
@@ -23074,48 +23153,48 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="146" t="s">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="H30" s="145" t="s">
+        <v>14</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="69" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="156" t="s">
-        <v>162</v>
+      <c r="T30" s="155" t="s">
+        <v>201</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
-      <c r="AF30" s="136" t="s">
-        <v>15</v>
+      <c r="AF30" s="135" t="s">
+        <v>14</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -23241,47 +23320,47 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M34" s="127" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U34" s="127" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y34" s="155"/>
+        <v>157</v>
+      </c>
+      <c r="Y34" s="154"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="87" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AC34" s="12"/>
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
       <c r="AF34" s="40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -23415,15 +23494,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="ER6" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -23431,15 +23510,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -23447,7 +23526,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -23550,7 +23629,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -23671,43 +23750,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -23721,28 +23800,28 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="158" t="s">
-        <v>46</v>
+      <c r="H10" s="157" t="s">
+        <v>43</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
       <c r="M10" s="74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N10" s="117" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="74" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T10" s="111" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -23752,7 +23831,7 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="74" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
@@ -23881,44 +23960,44 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -23939,10 +24018,10 @@
       <c r="L15" s="20"/>
       <c r="M15" s="19"/>
       <c r="N15" s="75" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O15" s="126" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -23990,10 +24069,10 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y16" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21"/>
@@ -24051,44 +24130,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -24139,8 +24218,8 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="146" t="s">
-        <v>172</v>
+      <c r="H20" s="145" t="s">
+        <v>167</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -24154,7 +24233,7 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
@@ -24167,10 +24246,10 @@
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF20" s="119" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -24221,48 +24300,48 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z22" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -24286,10 +24365,10 @@
       <c r="O23" s="21"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="75" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R23" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
@@ -24357,8 +24436,8 @@
       <c r="H25" s="28"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="159" t="s">
-        <v>191</v>
+      <c r="K25" s="158" t="s">
+        <v>182</v>
       </c>
       <c r="L25" s="30"/>
       <c r="M25" s="29"/>
@@ -24393,44 +24472,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -24481,8 +24560,8 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="92" t="s">
-        <v>137</v>
+      <c r="H28" s="176" t="s">
+        <v>132</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -24495,8 +24574,8 @@
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
-      <c r="T28" s="156" t="s">
-        <v>165</v>
+      <c r="T28" s="155" t="s">
+        <v>160</v>
       </c>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
@@ -24559,44 +24638,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -24684,8 +24763,8 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="160" t="s">
-        <v>191</v>
+      <c r="H33" s="159" t="s">
+        <v>182</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -24698,10 +24777,10 @@
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="72" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="T33" s="121" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U33" s="34"/>
       <c r="V33" s="34"/>
@@ -24713,7 +24792,7 @@
       <c r="AB33" s="34"/>
       <c r="AC33" s="34"/>
       <c r="AD33" s="72" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AE33" s="37"/>
       <c r="AF33" s="41"/>
@@ -24730,43 +24809,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -24901,7 +24980,7 @@
   <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24911,7 +24990,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -24919,15 +24998,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -24935,7 +25014,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -25038,7 +25117,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -25159,43 +25238,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -25210,25 +25289,25 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="80" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
       <c r="M10" s="13"/>
       <c r="N10" s="74" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="161" t="s">
-        <v>179</v>
+      <c r="T10" s="160" t="s">
+        <v>173</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -25236,14 +25315,14 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="150" t="s">
-        <v>46</v>
+      <c r="AE10" s="149" t="s">
+        <v>43</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="5"/>
@@ -25369,32 +25448,32 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
       <c r="X14" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
@@ -25404,7 +25483,7 @@
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -25455,8 +25534,8 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="146" t="s">
-        <v>67</v>
+      <c r="H16" s="145" t="s">
+        <v>62</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -25464,7 +25543,7 @@
       <c r="L16" s="20"/>
       <c r="M16" s="19"/>
       <c r="N16" s="75" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="19"/>
@@ -25533,44 +25612,44 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -25602,8 +25681,8 @@
       <c r="W19" s="19"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="19"/>
-      <c r="Z19" s="162" t="s">
-        <v>159</v>
+      <c r="Z19" s="161" t="s">
+        <v>154</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="19"/>
@@ -25661,17 +25740,17 @@
       <c r="F21" s="5"/>
       <c r="G21" s="19"/>
       <c r="H21" s="77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I21" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="148" t="s">
-        <v>165</v>
+      <c r="N21" s="147" t="s">
+        <v>160</v>
       </c>
       <c r="O21" s="21"/>
       <c r="P21" s="19"/>
@@ -25679,7 +25758,7 @@
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="69" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
@@ -25705,44 +25784,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -25780,7 +25859,7 @@
       <c r="AC23" s="19"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="76" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF23" s="41"/>
       <c r="AG23" s="5"/>
@@ -25805,8 +25884,8 @@
       <c r="O24" s="21"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="148" t="s">
-        <v>176</v>
+      <c r="R24" s="147" t="s">
+        <v>170</v>
       </c>
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
@@ -25849,7 +25928,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="29"/>
       <c r="V25" s="29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="W25" s="29"/>
       <c r="X25" s="30"/>
@@ -25873,44 +25952,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -25939,8 +26018,8 @@
       <c r="T27" s="20"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
-      <c r="W27" s="148" t="s">
-        <v>165</v>
+      <c r="W27" s="147" t="s">
+        <v>160</v>
       </c>
       <c r="X27" s="20"/>
       <c r="Y27" s="19"/>
@@ -25974,9 +26053,9 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" s="133"/>
+        <v>34</v>
+      </c>
+      <c r="S28" s="132"/>
       <c r="T28" s="20"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
@@ -25985,10 +26064,10 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
       <c r="AA28" s="99" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AB28" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
@@ -26006,8 +26085,8 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="163" t="s">
-        <v>175</v>
+      <c r="H29" s="162" t="s">
+        <v>39</v>
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
@@ -26045,44 +26124,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -26111,7 +26190,7 @@
       <c r="T31" s="20"/>
       <c r="U31" s="19"/>
       <c r="V31" s="75" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W31" s="19"/>
       <c r="X31" s="20"/>
@@ -26195,8 +26274,8 @@
       <c r="AB33" s="34"/>
       <c r="AC33" s="34"/>
       <c r="AD33" s="34"/>
-      <c r="AE33" s="164" t="s">
-        <v>69</v>
+      <c r="AE33" s="163" t="s">
+        <v>64</v>
       </c>
       <c r="AF33" s="119"/>
       <c r="AG33" s="5"/>
@@ -26212,43 +26291,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -26365,7 +26444,7 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="9"/>
     </row>
-    <row r="38" spans="3:35" ht="17" thickTop="1"/>
+    <row r="38" spans="3:35" ht="16" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26382,15 +26461,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+    <sheetView topLeftCell="B20" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:35" ht="36" customHeight="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -26398,15 +26477,15 @@
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="36" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>37</v>
@@ -26414,7 +26493,7 @@
     </row>
     <row r="4" spans="1:35" ht="36" customHeight="1">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="36" customHeight="1" thickBot="1">
@@ -26517,7 +26596,7 @@
     </row>
     <row r="6" spans="1:35" ht="36" customHeight="1" thickTop="1">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -26638,43 +26717,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
       <c r="L9" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
       <c r="P9" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
       <c r="X9" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
       <c r="AA9" s="54"/>
       <c r="AB9" s="39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
       <c r="AF9" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -26688,8 +26767,8 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="158" t="s">
-        <v>183</v>
+      <c r="H10" s="157" t="s">
+        <v>177</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -26699,8 +26778,8 @@
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="147" t="s">
-        <v>195</v>
+      <c r="Q10" s="146" t="s">
+        <v>204</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -26711,16 +26790,16 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="74" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA10" s="122" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="150" t="s">
-        <v>136</v>
+      <c r="AE10" s="149" t="s">
+        <v>131</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="5"/>
@@ -26740,10 +26819,10 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="69" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M11" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N11" s="19"/>
       <c r="O11" s="21"/>
@@ -26848,46 +26927,46 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="100" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="165" t="s">
-        <v>142</v>
+      <c r="X14" s="164" t="s">
+        <v>137</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -26961,10 +27040,10 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="76" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AF16" s="119" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
@@ -27015,48 +27094,48 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="21"/>
       <c r="P18" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="75" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="75" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB18" s="125" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -27075,8 +27154,8 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="148" t="s">
-        <v>182</v>
+      <c r="M19" s="177" t="s">
+        <v>176</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="21"/>
@@ -27169,7 +27248,7 @@
       <c r="AC21" s="19"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AF21" s="41"/>
       <c r="AG21" s="5"/>
@@ -27184,44 +27263,44 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -27236,7 +27315,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="19"/>
       <c r="H23" s="77" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
@@ -27247,10 +27326,10 @@
       <c r="O23" s="21"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="75" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="R23" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
@@ -27293,10 +27372,10 @@
       <c r="T24" s="20"/>
       <c r="U24" s="19"/>
       <c r="V24" s="75" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="W24" s="112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="X24" s="20"/>
       <c r="Y24" s="19"/>
@@ -27340,10 +27419,10 @@
       <c r="AA25" s="31"/>
       <c r="AB25" s="29"/>
       <c r="AC25" s="82" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AD25" s="120" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AE25" s="32"/>
       <c r="AF25" s="41"/>
@@ -27359,44 +27438,44 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
       <c r="P26" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -27421,13 +27500,13 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="75" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S27" s="19"/>
       <c r="T27" s="20"/>
       <c r="U27" s="19"/>
       <c r="W27" s="76" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
@@ -27449,8 +27528,8 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="146" t="s">
-        <v>60</v>
+      <c r="H28" s="145" t="s">
+        <v>55</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -27491,7 +27570,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="29"/>
       <c r="N29" s="82" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O29" s="31"/>
       <c r="P29" s="29"/>
@@ -27506,7 +27585,7 @@
       <c r="Y29" s="29"/>
       <c r="Z29" s="29"/>
       <c r="AA29" s="62" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB29" s="29"/>
       <c r="AC29" s="29"/>
@@ -27525,44 +27604,44 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="22"/>
       <c r="AF30" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -27634,7 +27713,7 @@
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="75" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AF32" s="119"/>
       <c r="AG32" s="5"/>
@@ -27650,14 +27729,14 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="70" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="35"/>
       <c r="M33" s="101" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N33" s="34"/>
       <c r="O33" s="36"/>
@@ -27673,7 +27752,7 @@
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
       <c r="AA33" s="72" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AB33" s="35"/>
       <c r="AC33" s="34"/>
@@ -27693,43 +27772,43 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>

--- a/Planning/planning_2017/plotmaps_2017.xlsx
+++ b/Planning/planning_2017/plotmaps_2017.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="511" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="20760" tabRatio="511" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2 (2)" sheetId="6" r:id="rId1"/>
@@ -7356,7 +7356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -10297,7 +10297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -13216,7 +13216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
@@ -14693,7 +14693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
@@ -16144,7 +16144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -17554,7 +17554,7 @@
   </sheetPr>
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
@@ -19043,7 +19043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -20532,7 +20532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -22017,7 +22017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
@@ -24979,7 +24979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
@@ -26461,7 +26461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>

--- a/Planning/planning_2017/plotmaps_2017.xlsx
+++ b/Planning/planning_2017/plotmaps_2017.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="20760" tabRatio="511" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="511" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="2 (2)" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="208">
   <si>
     <t>Shrub Sun</t>
   </si>
@@ -523,9 +523,6 @@
     <t>BETPAP_HF_16</t>
   </si>
   <si>
-    <t>MYRGAL_WM_4</t>
-  </si>
-  <si>
     <t>SPIALB_SH_4</t>
   </si>
   <si>
@@ -566,9 +563,6 @@
   </si>
   <si>
     <t>BETPOP_WM_9</t>
-  </si>
-  <si>
-    <t>DIELON_SH_1</t>
   </si>
   <si>
     <t>SAMRAC_GR_2</t>
@@ -2903,10 +2897,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6567,7 +6561,7 @@
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -7023,7 +7017,7 @@
         <v>96</v>
       </c>
       <c r="H30" s="129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
@@ -7037,7 +7031,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="21"/>
       <c r="P30" s="147" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -7195,13 +7189,13 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="147" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
@@ -8246,7 +8240,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="19"/>
       <c r="H24" s="145" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -8621,7 +8615,7 @@
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="165" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="34"/>
@@ -9814,7 +9808,7 @@
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="164" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
@@ -10013,7 +10007,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="19"/>
       <c r="N31" s="180" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O31" s="21"/>
       <c r="Q31" s="19"/>
@@ -10031,7 +10025,7 @@
       <c r="AD31" s="19"/>
       <c r="AE31" s="22"/>
       <c r="AF31" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
@@ -10074,7 +10068,7 @@
       <c r="AD32" s="19"/>
       <c r="AE32" s="22"/>
       <c r="AF32" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
@@ -10297,8 +10291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -10604,7 +10598,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="157" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -10642,7 +10636,7 @@
       <c r="AD10" s="13"/>
       <c r="AE10" s="17"/>
       <c r="AF10" s="147" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -10769,20 +10763,20 @@
       <c r="G14" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="181" t="s">
-        <v>161</v>
+      <c r="H14" s="169" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
       <c r="P14" s="153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -10798,13 +10792,13 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="168" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="167" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -10931,8 +10925,8 @@
       <c r="G18" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="176" t="s">
-        <v>166</v>
+      <c r="H18" s="145" t="s">
+        <v>165</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -10949,8 +10943,8 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="182" t="s">
-        <v>3</v>
+      <c r="T18" s="155" t="s">
+        <v>11</v>
       </c>
       <c r="U18" s="112" t="s">
         <v>153</v>
@@ -10965,8 +10959,8 @@
       </c>
       <c r="Z18" s="19"/>
       <c r="AA18" s="21"/>
-      <c r="AB18" s="177" t="s">
-        <v>166</v>
+      <c r="AB18" s="147" t="s">
+        <v>165</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
@@ -11112,7 +11106,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
       <c r="P22" s="153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
@@ -11270,7 +11264,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="156" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -11446,7 +11440,7 @@
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="156" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
@@ -12334,7 +12328,7 @@
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="172" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF16" s="41"/>
       <c r="AG16" s="5"/>
@@ -12984,7 +12978,7 @@
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
-      <c r="X32" s="182" t="s">
+      <c r="X32" s="181" t="s">
         <v>159</v>
       </c>
       <c r="Z32" s="19"/>
@@ -13535,7 +13529,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
       <c r="P10" s="133" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -13545,7 +13539,7 @@
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="136" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
@@ -13775,7 +13769,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="19"/>
       <c r="H16" s="134" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -13837,7 +13831,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="173" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF17" s="41"/>
       <c r="AG17" s="5"/>
@@ -14005,7 +13999,7 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="147" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
@@ -14113,7 +14107,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="19"/>
       <c r="H24" s="145" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -14137,7 +14131,7 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="172" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF24" s="41"/>
       <c r="AG24" s="5"/>
@@ -14254,7 +14248,7 @@
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
       <c r="T27" s="174" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
@@ -14466,7 +14460,7 @@
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AE32" s="22"/>
       <c r="AF32" s="41"/>
@@ -15014,7 +15008,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -15242,7 +15236,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="19"/>
       <c r="H16" s="145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -15831,7 +15825,7 @@
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X30" s="46" t="s">
         <v>118</v>
@@ -16152,52 +16146,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -17554,7 +17548,7 @@
   </sheetPr>
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
@@ -17886,7 +17880,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="13"/>
@@ -18312,10 +18306,10 @@
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="76" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF20" s="41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -18513,7 +18507,7 @@
       <c r="Y25" s="29"/>
       <c r="Z25" s="29"/>
       <c r="AA25" s="148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
@@ -20125,18 +20119,18 @@
       <c r="W28" s="19"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Z28" s="19"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AE28" s="22"/>
       <c r="AF28" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
@@ -21480,7 +21474,7 @@
       <c r="N25" s="29"/>
       <c r="O25" s="31"/>
       <c r="P25" s="82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="150"/>
       <c r="R25" s="29"/>
@@ -22662,7 +22656,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -22680,7 +22674,7 @@
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
@@ -22694,7 +22688,7 @@
       <c r="AD18" s="19"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -22862,7 +22856,7 @@
       <c r="AD22" s="24"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG22" s="109"/>
       <c r="AH22" s="5"/>
@@ -22990,7 +22984,7 @@
         <v>95</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I26" s="91"/>
       <c r="J26" s="24"/>
@@ -23008,7 +23002,7 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
@@ -23176,7 +23170,7 @@
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="155" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
@@ -24219,7 +24213,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="19"/>
       <c r="H20" s="145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -24437,7 +24431,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="158" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L25" s="30"/>
       <c r="M25" s="29"/>
@@ -24764,7 +24758,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="19"/>
       <c r="H33" s="159" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -25307,7 +25301,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="160" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -25885,7 +25879,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
@@ -26461,8 +26455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="B11" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -26768,7 +26762,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="19"/>
       <c r="H10" s="157" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -26779,7 +26773,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="146" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -27154,8 +27148,8 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="177" t="s">
-        <v>176</v>
+      <c r="M19" s="182" t="s">
+        <v>58</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="21"/>
@@ -27736,7 +27730,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="35"/>
       <c r="M33" s="101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N33" s="34"/>
       <c r="O33" s="36"/>
